--- a/biology/Botanique/Strobilomyces/Strobilomyces.xlsx
+++ b/biology/Botanique/Strobilomyces/Strobilomyces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Strobilomyces est un genre de champignons basidiomycètes de la famille des Boletacées.
 Leur nom a été tiré du grec strobilos, « pomme de pin », en référence à l'aspect de l'espèce-type, originellement nommée strobilomyces strobilaceus.
@@ -512,7 +524,9 @@
           <t>Liste des espèces de Strobilomyces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Strobilomyces alpinus - (Yunnan, Chine)
 Strobilomyces ananaeceps
@@ -523,7 +537,7 @@
 Strobilomyces benoisii
 Strobilomyces camphoratus
 Strobilomyces coccineus
-Strobilomyces confusus - (Asie de l'Est, Amérique du Nord) [1]
+Strobilomyces confusus - (Asie de l'Est, Amérique du Nord) 
 Strobilomyces coturnix - (Madagascar)
 Strobilomyces dryophilus - (États-Unis)
 Strobilomyces echinatus
@@ -545,7 +559,7 @@
 Strobilomyces mirandus - (Malaisie)
 Strobilomyces mollis - (Malaisie)
 Strobilomyces montosus
-Strobilomyces nigricans - (Asie de l'Est, Amérique du Nord) [1]
+Strobilomyces nigricans - (Asie de l'Est, Amérique du Nord) 
 Strobilomyces pallescens
 Strobilomyces paradoxus
 Strobilomyces parvirimosus - (Yunnan, Chine)
